--- a/target/test-classes/testdata/HrmsTestData.xlsx
+++ b/target/test-classes/testdata/HrmsTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Syntax/eclipse-workspace/SyntaxBatchVII/CucumberFrameworkBatch7/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahee\IdeaProjects\CucumberFrameWorkBatch8\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52244FC2-7A37-D345-9920-BB227EEFB9EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7B9A53-A129-4CD8-AF01-39D7006978C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{8AF4A404-313A-6D48-AC57-E27FCF5E34E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AF4A404-313A-6D48-AC57-E27FCF5E34E7}"/>
   </bookViews>
   <sheets>
     <sheet name="AddEmployee" sheetId="1" r:id="rId1"/>
@@ -441,14 +441,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.796875" defaultRowHeight="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="18.83203125" style="1"/>
+    <col min="1" max="3" width="18.796875" style="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="18.83203125" style="1"/>
+    <col min="5" max="16384" width="18.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -476,7 +476,7 @@
         <v>55555555</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -490,7 +490,7 @@
         <v>66666666</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -504,7 +504,7 @@
         <v>3333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -529,7 +529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -541,7 +541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -553,7 +553,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -565,7 +565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
